--- a/Data -CSV Files/Max-depth-DT-level.xlsx
+++ b/Data -CSV Files/Max-depth-DT-level.xlsx
@@ -1,26 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18625"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s5irfan\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MAMP\htdocs\MSCI446-Housing\Data -CSV Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11880" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11880" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="w budget New" sheetId="1" r:id="rId1"/>
-    <sheet name="wo budget New" sheetId="2" r:id="rId2"/>
-    <sheet name="Old with budget" sheetId="3" r:id="rId3"/>
+    <sheet name="Old " sheetId="3" r:id="rId1"/>
+    <sheet name="New" sheetId="4" r:id="rId2"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId4"/>
-    <externalReference r:id="rId5"/>
+    <externalReference r:id="rId3"/>
   </externalReferences>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -30,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t xml:space="preserve">max </t>
   </si>
@@ -41,13 +39,16 @@
     <t>cross validation</t>
   </si>
   <si>
-    <t>With budget</t>
+    <t>training</t>
+  </si>
+  <si>
+    <t>cross</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -83,9 +84,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -122,7 +122,17 @@
   <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="7.0108705161854773E-2"/>
+          <c:y val="0.16666666666666666"/>
+          <c:w val="0.89655796150481193"/>
+          <c:h val="0.63759988334791484"/>
+        </c:manualLayout>
+      </c:layout>
       <c:lineChart>
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
@@ -131,7 +141,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'w budget New'!$B$3</c:f>
+              <c:f>[1]Sheet1!$B$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -166,45 +176,45 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'w budget New'!$B$4:$B$15</c:f>
+              <c:f>[1]Sheet1!$B$4:$B$15</c:f>
               <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>0.62</c:v>
+                  <c:v>0.34196891191700002</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.65284974093299997</c:v>
+                  <c:v>0.39896373057000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.65803108808300004</c:v>
+                  <c:v>0.42487046632100001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.699481865285</c:v>
+                  <c:v>0.46113989637300001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.73575129533700001</c:v>
+                  <c:v>0.50259067357499998</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.77202072538900002</c:v>
+                  <c:v>0.54922279792700002</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.79274611398999995</c:v>
+                  <c:v>0.63212435233200004</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.81865284974100005</c:v>
+                  <c:v>0.69430051813500004</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.86528497409299998</c:v>
+                  <c:v>0.74093264248699997</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.89119170984499996</c:v>
+                  <c:v>0.78238341968900005</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.90673575129499995</c:v>
+                  <c:v>0.78756476683900001</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.90673575129499995</c:v>
+                  <c:v>0.78756476683900001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -212,7 +222,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-84B1-462C-9EC2-E5E607014B38}"/>
+              <c16:uniqueId val="{00000000-778A-40F9-B6DC-643FAE518B1E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -221,7 +231,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'w budget New'!$C$3</c:f>
+              <c:f>[1]Sheet1!$C$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -256,832 +266,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'w budget New'!$C$4:$C$15</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>0.56000000000000005</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.53</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.52</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.56000000000000005</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.54</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.57999999999999996</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.53</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.55000000000000004</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.56999999999999995</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.53</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.52</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.52</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-84B1-462C-9EC2-E5E607014B38}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="451790312"/>
-        <c:axId val="462631792"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="451790312"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="462631792"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="462631792"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="0.00" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="451790312"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>[1]Sheet2!$B$2:$B$13</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>0.62694300518099999</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.65284974093299997</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.65803108808300004</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.689119170984</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.689119170984</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.73575129533700001</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.80310880828999998</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.81347150259099998</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.84974093264200001</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.86528497409299998</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.87046632124400003</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.88082901554399995</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-7068-4A0E-BB74-4A4798C9DA4C}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>[1]Sheet2!$C$2:$C$13</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>0.53</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.53</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.56000000000000005</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.52</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.54</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.56000000000000005</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.55000000000000004</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.54</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.51</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.54</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.53</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.55000000000000004</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-7068-4A0E-BB74-4A4798C9DA4C}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="621969624"/>
-        <c:axId val="621967000"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="621969624"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="621967000"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="621967000"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="621969624"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:autoTitleDeleted val="1"/>
-    <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="7.0108705161854773E-2"/>
-          <c:y val="0.16666666666666666"/>
-          <c:w val="0.89655796150481193"/>
-          <c:h val="0.63759988334791484"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>[2]Sheet1!$B$3</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>training score</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>[2]Sheet1!$B$4:$B$15</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>0.34196891191700002</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.39896373057000001</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.42487046632100001</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.46113989637300001</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.50259067357499998</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.54922279792700002</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.63212435233200004</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.69430051813500004</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.74093264248699997</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.78238341968900005</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.78756476683900001</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.78756476683900001</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-778A-40F9-B6DC-643FAE518B1E}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>[2]Sheet1!$C$3</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>cross validation</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>[2]Sheet1!$C$4:$C$15</c:f>
+              <c:f>[1]Sheet1!$C$4:$C$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -1182,7 +367,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1325,8 +509,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.21686570428696417"/>
-          <c:y val="4.687445319335079E-2"/>
+          <c:x val="0.21408792650918634"/>
+          <c:y val="3.7240377467267459E-2"/>
           <c:w val="0.51626859142607173"/>
           <c:h val="7.8125546806649182E-2"/>
         </c:manualLayout>
@@ -1362,7 +546,6 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -1370,6 +553,417 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>New!$B$4:$B$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0.58499999999999996</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.63700000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.64800000000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.69399999999999995</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.74099999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.76700000000000002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.81899999999999995</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.85499999999999998</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.88600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.91200000000000003</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.92200000000000004</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.92200000000000004</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-26F2-4BF0-964C-68FFCA2521B2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>New!$C$4:$C$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0.51300000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.53400000000000003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.51800000000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.51300000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.54400000000000004</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.54400000000000004</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.51800000000000002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.50800000000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.52800000000000002</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.53400000000000003</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.53400000000000003</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.52800000000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-26F2-4BF0-964C-68FFCA2521B2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="604397528"/>
+        <c:axId val="604402776"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="604397528"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="604402776"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="604402776"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="604397528"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -1484,46 +1078,6 @@
 </cs:colorStyle>
 </file>
 
-<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
@@ -2530,571 +2084,27 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>291570</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>165099</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>300037</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>163830</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>37570</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>59266</xdr:rowOff>
+      <xdr:colOff>604837</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5E0C54A9-372C-49A0-A1AF-56D5E8D61D4B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>60960</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>91440</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>102870</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B8C20D26-1E99-420F-B730-9982F7213851}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3117,33 +2127,31 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>185737</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>490537</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
+        <xdr:cNvPr id="4" name="Chart 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5E0C54A9-372C-49A0-A1AF-56D5E8D61D4B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3209C19D-EEFB-4118-9323-E150B88A532F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
+        <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -3161,118 +2169,6 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Sheet1"/>
-      <sheetName val="Sheet2"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1">
-        <row r="2">
-          <cell r="B2">
-            <v>0.62694300518099999</v>
-          </cell>
-          <cell r="C2">
-            <v>0.53</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="B3">
-            <v>0.65284974093299997</v>
-          </cell>
-          <cell r="C3">
-            <v>0.53</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="B4">
-            <v>0.65803108808300004</v>
-          </cell>
-          <cell r="C4">
-            <v>0.56000000000000005</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="B5">
-            <v>0.689119170984</v>
-          </cell>
-          <cell r="C5">
-            <v>0.52</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="B6">
-            <v>0.689119170984</v>
-          </cell>
-          <cell r="C6">
-            <v>0.54</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="B7">
-            <v>0.73575129533700001</v>
-          </cell>
-          <cell r="C7">
-            <v>0.56000000000000005</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="B8">
-            <v>0.80310880828999998</v>
-          </cell>
-          <cell r="C8">
-            <v>0.55000000000000004</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="B9">
-            <v>0.81347150259099998</v>
-          </cell>
-          <cell r="C9">
-            <v>0.54</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="B10">
-            <v>0.84974093264200001</v>
-          </cell>
-          <cell r="C10">
-            <v>0.51</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="B11">
-            <v>0.86528497409299998</v>
-          </cell>
-          <cell r="C11">
-            <v>0.54</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="B12">
-            <v>0.87046632124400003</v>
-          </cell>
-          <cell r="C12">
-            <v>0.53</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="B13">
-            <v>0.88082901554399995</v>
-          </cell>
-          <cell r="C13">
-            <v>0.55000000000000004</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -3686,25 +2582,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:C15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A3:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -3715,299 +2606,184 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1</v>
       </c>
       <c r="B4" s="1">
-        <v>0.62</v>
+        <v>0.34196891191700002</v>
       </c>
       <c r="C4">
-        <v>0.56000000000000005</v>
+        <v>0.32</v>
+      </c>
+      <c r="D4">
+        <f>(B4-C4)*100</f>
+        <v>2.1968911917000011</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>2</v>
       </c>
       <c r="B5" s="1">
-        <v>0.65284974093299997</v>
+        <v>0.39896373057000001</v>
       </c>
       <c r="C5">
-        <v>0.53</v>
+        <v>0.27</v>
+      </c>
+      <c r="D5">
+        <f t="shared" ref="D5:D15" si="0">(B5-C5)*100</f>
+        <v>12.896373056999998</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>3</v>
       </c>
       <c r="B6" s="1">
-        <v>0.65803108808300004</v>
+        <v>0.42487046632100001</v>
       </c>
       <c r="C6">
-        <v>0.52</v>
+        <v>0.32</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="0"/>
+        <v>10.4870466321</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>4</v>
       </c>
       <c r="B7" s="1">
-        <v>0.699481865285</v>
+        <v>0.46113989637300001</v>
       </c>
       <c r="C7">
-        <v>0.56000000000000005</v>
+        <v>0.3</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="0"/>
+        <v>16.113989637300001</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>5</v>
       </c>
       <c r="B8" s="1">
-        <v>0.73575129533700001</v>
+        <v>0.50259067357499998</v>
       </c>
       <c r="C8">
-        <v>0.54</v>
+        <v>0.26</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="0"/>
+        <v>24.259067357499998</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>6</v>
       </c>
       <c r="B9" s="1">
-        <v>0.77202072538900002</v>
+        <v>0.54922279792700002</v>
       </c>
       <c r="C9">
-        <v>0.57999999999999996</v>
+        <v>0.3</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="0"/>
+        <v>24.922279792700003</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>7</v>
       </c>
       <c r="B10" s="1">
-        <v>0.79274611398999995</v>
+        <v>0.63212435233200004</v>
       </c>
       <c r="C10">
-        <v>0.53</v>
+        <v>0.31</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="0"/>
+        <v>32.212435233200004</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>8</v>
       </c>
       <c r="B11" s="1">
-        <v>0.81865284974100005</v>
+        <v>0.69430051813500004</v>
       </c>
       <c r="C11">
-        <v>0.55000000000000004</v>
+        <v>0.3</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="0"/>
+        <v>39.430051813500008</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>9</v>
       </c>
       <c r="B12" s="1">
-        <v>0.86528497409299998</v>
+        <v>0.74093264248699997</v>
       </c>
       <c r="C12">
-        <v>0.56999999999999995</v>
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="0"/>
+        <v>45.093264248700002</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>10</v>
       </c>
       <c r="B13" s="1">
-        <v>0.89119170984499996</v>
+        <v>0.78238341968900005</v>
       </c>
       <c r="C13">
-        <v>0.53</v>
+        <v>0.3</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="0"/>
+        <v>48.238341968900009</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>11</v>
       </c>
       <c r="B14" s="1">
-        <v>0.90673575129499995</v>
+        <v>0.78756476683900001</v>
       </c>
       <c r="C14">
-        <v>0.52</v>
+        <v>0.3</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="0"/>
+        <v>48.756476683900004</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>12</v>
       </c>
       <c r="B15" s="1">
-        <v>0.90673575129499995</v>
+        <v>0.78756476683900001</v>
       </c>
       <c r="C15">
-        <v>0.52</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C13"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="12.140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2">
-        <v>0.62694300518099999</v>
-      </c>
-      <c r="C2">
-        <v>0.53</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" s="2">
-        <v>0.65284974093299997</v>
-      </c>
-      <c r="C3">
-        <v>0.53</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" s="2">
-        <v>0.65803108808300004</v>
-      </c>
-      <c r="C4">
-        <v>0.56000000000000005</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" s="2">
-        <v>0.689119170984</v>
-      </c>
-      <c r="C5">
-        <v>0.52</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" s="2">
-        <v>0.689119170984</v>
-      </c>
-      <c r="C6">
-        <v>0.54</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7" s="2">
-        <v>0.73575129533700001</v>
-      </c>
-      <c r="C7">
-        <v>0.56000000000000005</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8" s="2">
-        <v>0.80310880828999998</v>
-      </c>
-      <c r="C8">
-        <v>0.55000000000000004</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9" s="2">
-        <v>0.81347150259099998</v>
-      </c>
-      <c r="C9">
-        <v>0.54</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10" s="2">
-        <v>0.84974093264200001</v>
-      </c>
-      <c r="C10" s="2">
-        <v>0.51</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11" s="2">
-        <v>0.86528497409299998</v>
-      </c>
-      <c r="C11">
-        <v>0.54</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>11</v>
-      </c>
-      <c r="B12" s="2">
-        <v>0.87046632124400003</v>
-      </c>
-      <c r="C12">
-        <v>0.53</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>12</v>
-      </c>
-      <c r="B13" s="2">
-        <v>0.88082901554399995</v>
-      </c>
-      <c r="C13" s="2">
-        <v>0.55000000000000004</v>
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="0"/>
+        <v>49.756476683900004</v>
       </c>
     </row>
   </sheetData>
@@ -4016,164 +2792,201 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:C15"/>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{928E2834-89A5-484F-9C73-1C0791A34243}">
+  <dimension ref="A3:C22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="S12" sqref="S12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>0</v>
-      </c>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1</v>
       </c>
-      <c r="B4" s="2">
-        <v>0.34196891191700002</v>
+      <c r="B4">
+        <v>0.58499999999999996</v>
       </c>
       <c r="C4">
-        <v>0.32</v>
+        <v>0.51300000000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>2</v>
       </c>
-      <c r="B5" s="2">
-        <v>0.39896373057000001</v>
+      <c r="B5">
+        <v>0.63700000000000001</v>
       </c>
       <c r="C5">
-        <v>0.27</v>
+        <v>0.53400000000000003</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>3</v>
       </c>
-      <c r="B6" s="2">
-        <v>0.42487046632100001</v>
+      <c r="B6">
+        <v>0.64800000000000002</v>
       </c>
       <c r="C6">
-        <v>0.32</v>
+        <v>0.51800000000000002</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>4</v>
       </c>
-      <c r="B7" s="2">
-        <v>0.46113989637300001</v>
+      <c r="B7">
+        <v>0.69399999999999995</v>
       </c>
       <c r="C7">
-        <v>0.3</v>
+        <v>0.51300000000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>5</v>
       </c>
-      <c r="B8" s="2">
-        <v>0.50259067357499998</v>
+      <c r="B8">
+        <v>0.74099999999999999</v>
       </c>
       <c r="C8">
-        <v>0.26</v>
+        <v>0.54400000000000004</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>6</v>
       </c>
-      <c r="B9" s="2">
-        <v>0.54922279792700002</v>
+      <c r="B9">
+        <v>0.76700000000000002</v>
       </c>
       <c r="C9">
-        <v>0.3</v>
+        <v>0.54400000000000004</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>7</v>
       </c>
-      <c r="B10" s="2">
-        <v>0.63212435233200004</v>
+      <c r="B10">
+        <v>0.81899999999999995</v>
       </c>
       <c r="C10">
-        <v>0.31</v>
+        <v>0.51800000000000002</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>8</v>
       </c>
-      <c r="B11" s="2">
-        <v>0.69430051813500004</v>
+      <c r="B11">
+        <v>0.85499999999999998</v>
       </c>
       <c r="C11">
-        <v>0.3</v>
+        <v>0.50800000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>9</v>
       </c>
-      <c r="B12" s="2">
-        <v>0.74093264248699997</v>
+      <c r="B12">
+        <v>0.88600000000000001</v>
       </c>
       <c r="C12">
-        <v>0.28999999999999998</v>
+        <v>0.52800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>10</v>
       </c>
-      <c r="B13" s="2">
-        <v>0.78238341968900005</v>
+      <c r="B13">
+        <v>0.91200000000000003</v>
       </c>
       <c r="C13">
-        <v>0.3</v>
+        <v>0.53400000000000003</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>11</v>
       </c>
-      <c r="B14" s="2">
-        <v>0.78756476683900001</v>
+      <c r="B14">
+        <v>0.92200000000000004</v>
       </c>
       <c r="C14">
-        <v>0.3</v>
+        <v>0.53400000000000003</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>12</v>
       </c>
-      <c r="B15" s="2">
-        <v>0.78756476683900001</v>
+      <c r="B15">
+        <v>0.92200000000000004</v>
       </c>
       <c r="C15">
-        <v>0.28999999999999998</v>
+        <v>0.52800000000000002</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>100</v>
+      </c>
+      <c r="B19">
+        <v>0.92200000000000004</v>
+      </c>
+      <c r="C19">
+        <v>0.52300000000000002</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>95</v>
+      </c>
+      <c r="B20">
+        <v>0.92200000000000004</v>
+      </c>
+      <c r="C20">
+        <v>0.52800000000000002</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>90</v>
+      </c>
+      <c r="B21">
+        <v>0.92200000000000004</v>
+      </c>
+      <c r="C21">
+        <v>0.53900000000000003</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>85</v>
+      </c>
+      <c r="C22">
+        <v>0.53400000000000003</v>
       </c>
     </row>
   </sheetData>
+  <sortState ref="A4:C15">
+    <sortCondition ref="A4"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
